--- a/Templates/bulk_templates/profstandards_otf_tf_activities.xlsx
+++ b/Templates/bulk_templates/profstandards_otf_tf_activities.xlsx
@@ -65,9 +65,6 @@
     <t>Необходимые знания*</t>
   </si>
   <si>
-    <t>Небходимые умения*</t>
-  </si>
-  <si>
     <t>Трудовые действия*</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   <si>
     <t>** - если несколько, 
 То дублировать строчки</t>
+  </si>
+  <si>
+    <t>Необходимые умения*</t>
   </si>
 </sst>
 </file>
@@ -150,19 +150,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -528,101 +531,101 @@
   <dimension ref="A1:AMJ8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="12" width="13.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="12" width="13.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" customWidth="1"/>
     <col min="14" max="14" width="11.5703125"/>
     <col min="15" max="15" width="20.5703125" customWidth="1"/>
     <col min="16" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="5" customFormat="1" ht="36.75">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1024" s="3" customFormat="1" ht="36.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="AMJ1"/>
+    </row>
+    <row r="2" spans="1:1024">
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AMJ1"/>
-    </row>
-    <row r="2" spans="1:1024">
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:1024">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:1024" ht="12.75" customHeight="1">
+      <c r="M4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:1024">
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:1024" ht="12.75" customHeight="1">
-      <c r="M4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
     <row r="5" spans="1:1024">
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
     </row>
     <row r="6" spans="1:1024">
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:1024">
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:1024">
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Templates/bulk_templates/profstandards_otf_tf_activities.xlsx
+++ b/Templates/bulk_templates/profstandards_otf_tf_activities.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:AMJ8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -577,7 +577,7 @@
       <c r="I1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
